--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H2">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I2">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J2">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>0.2305690042677778</v>
+        <v>0.1497010664763333</v>
       </c>
       <c r="R2">
-        <v>2.07512103841</v>
+        <v>1.347309598287</v>
       </c>
       <c r="S2">
-        <v>0.001645275761254967</v>
+        <v>0.0008342156022542801</v>
       </c>
       <c r="T2">
-        <v>0.001645275761254967</v>
+        <v>0.00083421560225428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H3">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I3">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J3">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>11.55146780650022</v>
+        <v>10.14627161092433</v>
       </c>
       <c r="R3">
-        <v>103.963210258502</v>
+        <v>91.316444498319</v>
       </c>
       <c r="S3">
-        <v>0.08242803515289286</v>
+        <v>0.05654053295526036</v>
       </c>
       <c r="T3">
-        <v>0.08242803515289288</v>
+        <v>0.05654053295526035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H4">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I4">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J4">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>2.160077884961111</v>
+        <v>3.245288171284</v>
       </c>
       <c r="R4">
-        <v>19.44070096465</v>
+        <v>29.207593541556</v>
       </c>
       <c r="S4">
-        <v>0.01541371008577528</v>
+        <v>0.01808450727853948</v>
       </c>
       <c r="T4">
-        <v>0.01541371008577528</v>
+        <v>0.01808450727853948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H5">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I5">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J5">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.02015750415466667</v>
+        <v>0.030133033141</v>
       </c>
       <c r="R5">
-        <v>0.181417537392</v>
+        <v>0.271197298269</v>
       </c>
       <c r="S5">
-        <v>0.000143838297339189</v>
+        <v>0.0001679176172966112</v>
       </c>
       <c r="T5">
-        <v>0.000143838297339189</v>
+        <v>0.0001679176172966112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H6">
         <v>2.198467</v>
       </c>
       <c r="I6">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J6">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>1.359071536100556</v>
+        <v>1.004608793304778</v>
       </c>
       <c r="R6">
-        <v>12.231643824905</v>
+        <v>9.041479139743</v>
       </c>
       <c r="S6">
-        <v>0.009697953388222566</v>
+        <v>0.005598225512102028</v>
       </c>
       <c r="T6">
-        <v>0.009697953388222567</v>
+        <v>0.005598225512102028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H7">
         <v>2.198467</v>
       </c>
       <c r="I7">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J7">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
-        <v>68.08925226464346</v>
+        <v>68.08925226464345</v>
       </c>
       <c r="R7">
-        <v>612.8032703817911</v>
+        <v>612.803270381791</v>
       </c>
       <c r="S7">
-        <v>0.4858658114465752</v>
+        <v>0.3794302734240907</v>
       </c>
       <c r="T7">
-        <v>0.4858658114465753</v>
+        <v>0.3794302734240907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H8">
         <v>2.198467</v>
       </c>
       <c r="I8">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J8">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>12.73241552364722</v>
+        <v>21.77836878800933</v>
       </c>
       <c r="R8">
-        <v>114.591739712825</v>
+        <v>196.005319092084</v>
       </c>
       <c r="S8">
-        <v>0.09085494691625726</v>
+        <v>0.1213608924922204</v>
       </c>
       <c r="T8">
-        <v>0.09085494691625726</v>
+        <v>0.1213608924922203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H9">
         <v>2.198467</v>
       </c>
       <c r="I9">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J9">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>0.1188168818373334</v>
+        <v>0.2022157274823333</v>
       </c>
       <c r="R9">
-        <v>1.069351936536</v>
+        <v>1.819941547341</v>
       </c>
       <c r="S9">
-        <v>0.000847843951686699</v>
+        <v>0.001126855799077631</v>
       </c>
       <c r="T9">
-        <v>0.0008478439516866991</v>
+        <v>0.00112685579907763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1693576666666667</v>
+        <v>0.498848</v>
       </c>
       <c r="H10">
-        <v>0.508073</v>
+        <v>1.496544</v>
       </c>
       <c r="I10">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J10">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>0.3140859301327777</v>
+        <v>0.6838589171306667</v>
       </c>
       <c r="R10">
-        <v>2.826773371195</v>
+        <v>6.154730254176001</v>
       </c>
       <c r="S10">
-        <v>0.002241229125483532</v>
+        <v>0.003810833094507771</v>
       </c>
       <c r="T10">
-        <v>0.002241229125483532</v>
+        <v>0.003810833094507771</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1693576666666667</v>
+        <v>0.498848</v>
       </c>
       <c r="H11">
-        <v>0.508073</v>
+        <v>1.496544</v>
       </c>
       <c r="I11">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J11">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>15.73565155440322</v>
+        <v>46.34982555623467</v>
       </c>
       <c r="R11">
-        <v>141.620863989629</v>
+        <v>417.1484300061121</v>
       </c>
       <c r="S11">
-        <v>0.1122851971028429</v>
+        <v>0.2582863873377141</v>
       </c>
       <c r="T11">
-        <v>0.1122851971028429</v>
+        <v>0.2582863873377141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1693576666666667</v>
+        <v>0.498848</v>
       </c>
       <c r="H12">
-        <v>0.508073</v>
+        <v>1.496544</v>
       </c>
       <c r="I12">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J12">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>2.942503368186111</v>
+        <v>14.825006306432</v>
       </c>
       <c r="R12">
-        <v>26.482530313675</v>
+        <v>133.425056757888</v>
       </c>
       <c r="S12">
-        <v>0.02099687893636045</v>
+        <v>0.08261298236174454</v>
       </c>
       <c r="T12">
-        <v>0.02099687893636045</v>
+        <v>0.08261298236174454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1693576666666667</v>
+        <v>0.498848</v>
       </c>
       <c r="H13">
-        <v>0.508073</v>
+        <v>1.496544</v>
       </c>
       <c r="I13">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J13">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>0.02745897464266667</v>
+        <v>0.137652615968</v>
       </c>
       <c r="R13">
-        <v>0.247130771784</v>
+        <v>1.238873543712</v>
       </c>
       <c r="S13">
-        <v>0.0001959395433569465</v>
+        <v>0.0007670750959531498</v>
       </c>
       <c r="T13">
-        <v>0.0001959395433569465</v>
+        <v>0.0007670750959531498</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2213483333333333</v>
+        <v>0.1030673333333333</v>
       </c>
       <c r="H14">
-        <v>0.664045</v>
+        <v>0.309202</v>
       </c>
       <c r="I14">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="J14">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N14">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q14">
-        <v>0.4105063474638889</v>
+        <v>0.1412925680064444</v>
       </c>
       <c r="R14">
-        <v>3.694557127175</v>
+        <v>1.271633112058</v>
       </c>
       <c r="S14">
-        <v>0.002929258186582856</v>
+        <v>0.0007873588845286152</v>
       </c>
       <c r="T14">
-        <v>0.002929258186582857</v>
+        <v>0.0007873588845286151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2213483333333333</v>
+        <v>0.1030673333333333</v>
       </c>
       <c r="H15">
-        <v>0.664045</v>
+        <v>0.309202</v>
       </c>
       <c r="I15">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="J15">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P15">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q15">
-        <v>20.56629802497611</v>
+        <v>9.57636979710511</v>
       </c>
       <c r="R15">
-        <v>185.096682224785</v>
+        <v>86.187328173946</v>
       </c>
       <c r="S15">
-        <v>0.1467553357689886</v>
+        <v>0.05336473069792528</v>
       </c>
       <c r="T15">
-        <v>0.1467553357689886</v>
+        <v>0.05336473069792527</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2213483333333333</v>
+        <v>0.1030673333333333</v>
       </c>
       <c r="H16">
-        <v>0.664045</v>
+        <v>0.309202</v>
       </c>
       <c r="I16">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="J16">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N16">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q16">
-        <v>3.845814772930556</v>
+        <v>3.063004896589333</v>
       </c>
       <c r="R16">
-        <v>34.612332956375</v>
+        <v>27.567044069304</v>
       </c>
       <c r="S16">
-        <v>0.02744265582563033</v>
+        <v>0.01706872592601095</v>
       </c>
       <c r="T16">
-        <v>0.02744265582563033</v>
+        <v>0.01706872592601095</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2213483333333333</v>
+        <v>0.1030673333333333</v>
       </c>
       <c r="H17">
-        <v>0.664045</v>
+        <v>0.309202</v>
       </c>
       <c r="I17">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="J17">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N17">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O17">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P17">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q17">
-        <v>0.03588853337333334</v>
+        <v>0.02844050302733333</v>
       </c>
       <c r="R17">
-        <v>0.3229968003600001</v>
+        <v>0.255964527246</v>
       </c>
       <c r="S17">
-        <v>0.0002560905107503519</v>
+        <v>0.0001584859207740673</v>
       </c>
       <c r="T17">
-        <v>0.0002560905107503519</v>
+        <v>0.0001584859207740673</v>
       </c>
     </row>
   </sheetData>
